--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606655.2932004472</v>
+        <v>619913.4604210734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843295</v>
+        <v>2228144.448830835</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6544636.518880428</v>
+        <v>7098813.736711758</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>97.36454674747804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70.87562473588721</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.7496470371894</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>23.62973133531223</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>204.2273135228552</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>148.3555818371252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225796</v>
+        <v>134.7806822622883</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>231.0877810424397</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>239.5242245680313</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.3627470649806</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>397.6338352020397</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>62.02280383276961</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.0370214115934</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77676262085224</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>23.21710985618086</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>150.7148305382911</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>23.21710985618086</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.0927207504066</v>
+        <v>815.9375319722682</v>
       </c>
       <c r="C2" t="n">
-        <v>54.74469373275195</v>
+        <v>815.9375319722682</v>
       </c>
       <c r="D2" t="n">
-        <v>54.74469373275195</v>
+        <v>815.9375319722682</v>
       </c>
       <c r="E2" t="n">
-        <v>54.74469373275195</v>
+        <v>815.9375319722682</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>987.678414935661</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.3922912353144</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>70.40254395766848</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>394.9608689238808</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="L3" t="n">
-        <v>382.60715354234</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M3" t="n">
-        <v>382.60715354234</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2737.234686637598</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2491.355240216053</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2212.922239469158</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1925.966731339589</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1653.94032692588</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.2916376623957</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C5" t="n">
-        <v>344.2916376623957</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D5" t="n">
-        <v>344.2916376623957</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E5" t="n">
-        <v>344.2916376623957</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F5" t="n">
-        <v>344.2916376623957</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2916376623957</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>1042.579691713277</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>2007.209499933972</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>2932.864366408377</v>
       </c>
       <c r="O5" t="n">
-        <v>2087.141448561168</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="P5" t="n">
-        <v>2087.141448561168</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="V5" t="n">
-        <v>1811.676332945317</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="W5" t="n">
-        <v>1406.82087835635</v>
+        <v>3468.770304549891</v>
       </c>
       <c r="X5" t="n">
-        <v>987.678414935661</v>
+        <v>3049.627841129201</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.3922912353144</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2677.512777201755</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2431.63333078021</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2153.200330033315</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1866.244821903746</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1594.218417490038</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1348.82666282345</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1348.82666282345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2504.589090873591</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E8" t="n">
-        <v>54.74469373275195</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>1003.604749966986</v>
       </c>
       <c r="M8" t="n">
-        <v>489.9993811856698</v>
+        <v>1968.234558187682</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>2932.864366408377</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3534.877224562898</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2710.879306553242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2710.879306553242</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>379.3030186989643</v>
+        <v>104.013556653039</v>
       </c>
       <c r="K9" t="n">
-        <v>379.3030186989643</v>
+        <v>104.013556653039</v>
       </c>
       <c r="L9" t="n">
-        <v>379.3030186989643</v>
+        <v>104.013556653039</v>
       </c>
       <c r="M9" t="n">
-        <v>379.3030186989643</v>
+        <v>1068.643364873734</v>
       </c>
       <c r="N9" t="n">
-        <v>379.3030186989643</v>
+        <v>1068.643364873734</v>
       </c>
       <c r="O9" t="n">
-        <v>382.60715354234</v>
+        <v>1068.643364873734</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>905.2407308096831</v>
+        <v>2013.427667550648</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>1840.865956033872</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>1674.987963235395</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>1674.987963235395</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>1674.987963235395</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>1509.396688261223</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>1369.494513951597</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>1280.834564726272</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>1367.414249890962</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>1642.172704462098</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>2060.382586230059</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>2519.866453410972</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>2962.125256568616</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>3381.794505794398</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>3729.301399764739</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S10" t="n">
-        <v>2653.165134592867</v>
+        <v>3761.352071333831</v>
       </c>
       <c r="T10" t="n">
-        <v>2407.285688171322</v>
+        <v>3515.472624912286</v>
       </c>
       <c r="U10" t="n">
-        <v>2128.852687424428</v>
+        <v>3237.039624165392</v>
       </c>
       <c r="V10" t="n">
-        <v>1841.897179294858</v>
+        <v>2950.084116035822</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.87077488115</v>
+        <v>2678.057711622114</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.479020214562</v>
+        <v>2432.665956955526</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.05934952867</v>
+        <v>2205.246286269635</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.0341243765137</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="C11" t="n">
-        <v>482.6121233235442</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D11" t="n">
-        <v>482.6121233235442</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E11" t="n">
-        <v>482.6121233235442</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="L11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1388.901640863329</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084024</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.426947502111</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3677.426947502111</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3435.483286322281</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3030.627831733314</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>2611.485368312625</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.333694861421</v>
+        <v>2203.199244612278</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.832276802227</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O12" t="n">
-        <v>1082.832276802227</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P12" t="n">
-        <v>1082.832276802227</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>1987.850487765109</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W13" t="n">
-        <v>1715.824083351401</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1470.432328684813</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>456.8118216935309</v>
+        <v>1813.644315567211</v>
       </c>
       <c r="C14" t="n">
-        <v>456.8118216935309</v>
+        <v>1375.501842750634</v>
       </c>
       <c r="D14" t="n">
-        <v>456.8118216935309</v>
+        <v>939.5920579250785</v>
       </c>
       <c r="E14" t="n">
-        <v>55.16148310561195</v>
+        <v>505.8173130833737</v>
       </c>
       <c r="F14" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1844.930551071281</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M14" t="n">
-        <v>1844.930551071281</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N14" t="n">
-        <v>1844.930551071281</v>
+        <v>1388.901640863329</v>
       </c>
       <c r="O14" t="n">
-        <v>2190.735900679003</v>
+        <v>2353.531449084024</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.012383954615</v>
+        <v>3834.844877828295</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.395433888441</v>
+        <v>3472.227927762121</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.539979299475</v>
+        <v>3067.372473173155</v>
       </c>
       <c r="X14" t="n">
-        <v>1291.397515878785</v>
+        <v>2648.230009752465</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.1113921784387</v>
+        <v>2239.943886052119</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5522,10 +5524,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5595,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5753,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993934</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278435343481</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9207894961043</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2543.461783934675</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6469,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6706,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.802246727525</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2232.36924598063</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1945.413737851061</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1673.387333437352</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.995578770765</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.575908084873</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2174.293283011491</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.150810194914</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.241025369358</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E41" t="n">
-        <v>866.4662805276535</v>
+        <v>907.6319338329698</v>
       </c>
       <c r="F41" t="n">
-        <v>438.5988509368612</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>457.1059640083917</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>457.1059640083917</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>1421.735772229087</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>2386.365580449782</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y41" t="n">
-        <v>2174.293283011491</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>614.8820093934183</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E43" t="n">
-        <v>234.6230017912213</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F43" t="n">
-        <v>57.91594775297747</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1504.950644927595</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C44" t="n">
-        <v>1504.950644927595</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D44" t="n">
-        <v>1069.040860102039</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E44" t="n">
-        <v>635.2661152603346</v>
+        <v>907.6319338329698</v>
       </c>
       <c r="F44" t="n">
-        <v>207.3986856695423</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629072</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y44" t="n">
-        <v>1504.950644927595</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6510928577823</v>
+        <v>946.6850896121969</v>
       </c>
       <c r="C46" t="n">
-        <v>798.5094022949546</v>
+        <v>774.1233780954218</v>
       </c>
       <c r="D46" t="n">
-        <v>632.6314094964773</v>
+        <v>608.2453852969445</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8734057472146</v>
+        <v>438.4873815476818</v>
       </c>
       <c r="F46" t="n">
-        <v>286.1663517089709</v>
+        <v>261.7803275094379</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>96.1890525352656</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2448.730046973836</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2170.297046226941</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>1883.341538097372</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.281136929249</v>
+        <v>1611.315133683663</v>
       </c>
       <c r="X46" t="n">
-        <v>1227.889382262661</v>
+        <v>1365.923379017076</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000.469711576769</v>
+        <v>1138.503708331184</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>178.4356412673393</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>935.0049156307123</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>485.7971447710838</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>935.0049156307122</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>974.373543657268</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>974.373543657268</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.337509942803706</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>14.7823872436777</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>884.5424948664948</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>41.76442218146667</v>
       </c>
       <c r="O14" t="n">
-        <v>349.2983329370936</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>-3.81977839696432e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10352,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>382.9859399149599</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>336.3965013409329</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22556,16 +22558,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>352.7131305589971</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.2869277428692</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>335.3610492301995</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>217.8092612572035</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>281.0814155561625</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627253</v>
+        <v>22.86827275269496</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>202.6732670459712</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23309,13 +23311,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>119.4665559974804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.78272691405218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>31.80316219124808</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>194.6072758233836</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>37.38363054573588</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>303.6070904421165</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>335.7736707093309</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>246.6690225246777</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25916,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>194.6494449995109</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>447089.8020570077</v>
+        <v>440335.2621770246</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>447089.8020570078</v>
+        <v>563757.490332084</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>447089.8020570077</v>
+        <v>563757.4903320838</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447089.8020570077</v>
+        <v>563757.490332084</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447089.8020570077</v>
+        <v>563757.490332084</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447089.8020570077</v>
+        <v>563757.4903320838</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447089.8020570077</v>
+        <v>563757.4903320838</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188858.4092779992</v>
+        <v>186005.1756518479</v>
       </c>
       <c r="C2" t="n">
-        <v>188858.4092779992</v>
+        <v>238140.8440828148</v>
       </c>
       <c r="D2" t="n">
-        <v>188858.4092779991</v>
+        <v>238140.8440828147</v>
       </c>
       <c r="E2" t="n">
-        <v>188858.4092779992</v>
+        <v>238140.8440828147</v>
       </c>
       <c r="F2" t="n">
-        <v>188858.4092779992</v>
+        <v>238140.8440828147</v>
       </c>
       <c r="G2" t="n">
         <v>289771.6712755438</v>
@@ -26332,28 +26334,28 @@
         <v>289771.6712755438</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="K2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="M2" t="n">
         <v>289771.6712755438</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>289771.6712755438</v>
       </c>
-      <c r="M2" t="n">
-        <v>289771.6712755437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289771.6712755437</v>
-      </c>
       <c r="O2" t="n">
-        <v>188858.4092779992</v>
+        <v>238140.8440828147</v>
       </c>
       <c r="P2" t="n">
-        <v>188858.4092779991</v>
+        <v>238140.8440828147</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690565</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973278</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35560.61726858468</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="C4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="D4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.1288818501</v>
       </c>
       <c r="E4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185009</v>
       </c>
       <c r="F4" t="n">
-        <v>35560.61726858469</v>
+        <v>44840.12888185009</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26445,19 +26447,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>35560.61726858469</v>
+        <v>44840.12888185009</v>
       </c>
       <c r="P4" t="n">
-        <v>35560.61726858468</v>
+        <v>44840.12888185009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.5114543619</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.5114543619</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151263.3501999899</v>
+        <v>-146930.4223419063</v>
       </c>
       <c r="C6" t="n">
-        <v>78064.22477252298</v>
+        <v>1294.270291230408</v>
       </c>
       <c r="D6" t="n">
-        <v>78064.22477252298</v>
+        <v>100431.2037466027</v>
       </c>
       <c r="E6" t="n">
-        <v>111691.824772523</v>
+        <v>134058.8037466028</v>
       </c>
       <c r="F6" t="n">
-        <v>111691.824772523</v>
+        <v>134058.8037466028</v>
       </c>
       <c r="G6" t="n">
-        <v>-5301.680238312925</v>
+        <v>74200.75020322288</v>
       </c>
       <c r="H6" t="n">
         <v>157491.6075601285</v>
@@ -26543,10 +26545,10 @@
         <v>157491.6075601285</v>
       </c>
       <c r="J6" t="n">
-        <v>-21553.65052752339</v>
+        <v>-17159.74115757761</v>
       </c>
       <c r="K6" t="n">
-        <v>157491.6075601285</v>
+        <v>78516.09107039569</v>
       </c>
       <c r="L6" t="n">
         <v>157491.6075601285</v>
@@ -26558,10 +26560,10 @@
         <v>157491.6075601285</v>
       </c>
       <c r="O6" t="n">
-        <v>111691.824772523</v>
+        <v>134058.8037466028</v>
       </c>
       <c r="P6" t="n">
-        <v>111691.824772523</v>
+        <v>134058.8037466027</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274773</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274773</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>178.4356412673393</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.17305800913124</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>935.0049156307123</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>485.7971447710838</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>935.0049156307122</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>974.373543657268</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>974.373543657268</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.337509942803706</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>14.7823872436777</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>884.5424948664948</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>41.76442218146667</v>
       </c>
       <c r="O14" t="n">
-        <v>349.2983329370936</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,13 +35892,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36121,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1133.488385918383</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37072,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>382.9859399149599</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>974.373543657268</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619913.4604210734</v>
+        <v>618224.7559487767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228144.448830835</v>
+        <v>2228144.448830836</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>70.87562473588721</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>102.2888944430122</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8834167598883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>23.62973133531223</v>
+        <v>331.4465938387245</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.92574903168972</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.2273135228552</v>
+        <v>58.88262177835576</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>134.7806822622883</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>108.4364180145075</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>239.5242245680313</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>332.2343708412895</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>62.02280383276961</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>62.02280383276932</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>23.21710985618086</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.21710985618086</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>408.712220066875</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225732</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.9375319722682</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C2" t="n">
-        <v>815.9375319722682</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D2" t="n">
-        <v>815.9375319722682</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>815.9375319722682</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2566.738710832426</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2566.738710832426</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>2161.883256243459</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1742.740792822769</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1742.740792822769</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>70.40254395766848</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.0196728252577</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2215.042146943947</v>
+        <v>2103.191259496854</v>
       </c>
       <c r="C5" t="n">
-        <v>1776.89967412737</v>
+        <v>1665.048786680278</v>
       </c>
       <c r="D5" t="n">
-        <v>1340.989889301815</v>
+        <v>1229.139001854722</v>
       </c>
       <c r="E5" t="n">
-        <v>907.2151444601097</v>
+        <v>795.3642570130174</v>
       </c>
       <c r="F5" t="n">
-        <v>479.3477148693175</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="G5" t="n">
-        <v>77.94988349258144</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H5" t="n">
-        <v>77.94988349258144</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I5" t="n">
         <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>77.94988349258144</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>77.94988349258144</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.579691713277</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M5" t="n">
-        <v>2007.209499933972</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N5" t="n">
-        <v>2932.864366408377</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>3897.494174629072</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P5" t="n">
-        <v>3897.494174629072</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q5" t="n">
-        <v>3897.494174629072</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R5" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S5" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T5" t="n">
-        <v>3897.494174629072</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U5" t="n">
-        <v>3897.494174629072</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="V5" t="n">
-        <v>3873.625759138858</v>
+        <v>3342.632408271075</v>
       </c>
       <c r="W5" t="n">
-        <v>3468.770304549891</v>
+        <v>2937.776953682109</v>
       </c>
       <c r="X5" t="n">
-        <v>3049.627841129201</v>
+        <v>2937.776953682109</v>
       </c>
       <c r="Y5" t="n">
-        <v>2641.341717428855</v>
+        <v>2529.490829981762</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L6" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M6" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N6" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O6" t="n">
-        <v>428.5718816192513</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P6" t="n">
         <v>1083.277928244975</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1157.008044104463</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C7" t="n">
-        <v>984.4463325876878</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D7" t="n">
-        <v>818.5683397892105</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E7" t="n">
-        <v>648.8103360399477</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F7" t="n">
-        <v>472.1032820017039</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G7" t="n">
-        <v>306.5120070275316</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6098327179061</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I7" t="n">
         <v>77.94988349258144</v>
@@ -4752,25 +4752,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S7" t="n">
-        <v>2677.512777201755</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T7" t="n">
-        <v>2431.63333078021</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U7" t="n">
-        <v>2153.200330033315</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V7" t="n">
-        <v>1866.244821903746</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W7" t="n">
-        <v>1594.218417490038</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X7" t="n">
-        <v>1348.82666282345</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y7" t="n">
-        <v>1348.82666282345</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2504.589090873591</v>
+        <v>2504.172301500731</v>
       </c>
       <c r="C8" t="n">
-        <v>2066.446618057014</v>
+        <v>2066.029828684154</v>
       </c>
       <c r="D8" t="n">
-        <v>1630.536833231458</v>
+        <v>1630.120043858598</v>
       </c>
       <c r="E8" t="n">
-        <v>1196.762088389753</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="F8" t="n">
-        <v>768.8946587989612</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G8" t="n">
-        <v>367.4968274222252</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H8" t="n">
-        <v>78.36667286544143</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I8" t="n">
         <v>77.94988349258144</v>
@@ -4807,49 +4807,49 @@
         <v>77.94988349258144</v>
       </c>
       <c r="K8" t="n">
-        <v>77.94988349258144</v>
+        <v>175.29487513359</v>
       </c>
       <c r="L8" t="n">
-        <v>1003.604749966986</v>
+        <v>1139.924683354285</v>
       </c>
       <c r="M8" t="n">
-        <v>1968.234558187682</v>
+        <v>1139.924683354285</v>
       </c>
       <c r="N8" t="n">
-        <v>2932.864366408377</v>
+        <v>2104.55449157498</v>
       </c>
       <c r="O8" t="n">
-        <v>3897.494174629072</v>
+        <v>3069.184299795676</v>
       </c>
       <c r="P8" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="Q8" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R8" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>3897.494174629072</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T8" t="n">
-        <v>3897.494174629072</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U8" t="n">
-        <v>3897.494174629072</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V8" t="n">
-        <v>3534.877224562898</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W8" t="n">
-        <v>3130.021769973931</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="X8" t="n">
-        <v>2710.879306553242</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="Y8" t="n">
-        <v>2710.879306553242</v>
+        <v>2563.649697236443</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>104.013556653039</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>104.013556653039</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L9" t="n">
-        <v>104.013556653039</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M9" t="n">
-        <v>1068.643364873734</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N9" t="n">
-        <v>1068.643364873734</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O9" t="n">
-        <v>1068.643364873734</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P9" t="n">
         <v>1083.277928244975</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2013.427667550648</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C10" t="n">
-        <v>1840.865956033872</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D10" t="n">
-        <v>1674.987963235395</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E10" t="n">
-        <v>1674.987963235395</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F10" t="n">
-        <v>1674.987963235395</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G10" t="n">
-        <v>1509.396688261223</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H10" t="n">
-        <v>1369.494513951597</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I10" t="n">
-        <v>1280.834564726272</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J10" t="n">
-        <v>1367.414249890962</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>1642.172704462098</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L10" t="n">
-        <v>2060.382586230059</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>2519.866453410972</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>2962.125256568616</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>3381.794505794398</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>3729.301399764739</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>3897.494174629072</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>3897.494174629072</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S10" t="n">
-        <v>3761.352071333831</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T10" t="n">
-        <v>3515.472624912286</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U10" t="n">
-        <v>3237.039624165392</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V10" t="n">
-        <v>2950.084116035822</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W10" t="n">
-        <v>2678.057711622114</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X10" t="n">
-        <v>2432.665956955526</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y10" t="n">
-        <v>2205.246286269635</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1776.89967412737</v>
+        <v>1739.651779226788</v>
       </c>
       <c r="C11" t="n">
-        <v>1776.89967412737</v>
+        <v>1739.651779226788</v>
       </c>
       <c r="D11" t="n">
-        <v>1340.989889301815</v>
+        <v>1630.120043858598</v>
       </c>
       <c r="E11" t="n">
-        <v>907.2151444601097</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="F11" t="n">
-        <v>479.3477148693175</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G11" t="n">
-        <v>77.94988349258144</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H11" t="n">
         <v>77.94988349258144</v>
@@ -5044,19 +5044,19 @@
         <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>513.2045709454993</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>513.2045709454993</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M11" t="n">
-        <v>513.2045709454993</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.901640863329</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084024</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P11" t="n">
         <v>3181.84132391742</v>
@@ -5065,28 +5065,28 @@
         <v>3728.340109876015</v>
       </c>
       <c r="R11" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>3897.494174629072</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>3677.426947502111</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U11" t="n">
-        <v>3677.426947502111</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V11" t="n">
-        <v>3435.483286322281</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W11" t="n">
-        <v>3030.627831733314</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X11" t="n">
-        <v>2611.485368312625</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y11" t="n">
-        <v>2203.199244612278</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="12">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.644315567211</v>
+        <v>2405.987830236086</v>
       </c>
       <c r="C14" t="n">
-        <v>1375.501842750634</v>
+        <v>1967.845357419509</v>
       </c>
       <c r="D14" t="n">
-        <v>939.5920579250785</v>
+        <v>1531.935572593954</v>
       </c>
       <c r="E14" t="n">
-        <v>505.8173130833737</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="F14" t="n">
-        <v>77.94988349258144</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G14" t="n">
-        <v>77.94988349258144</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H14" t="n">
         <v>77.94988349258144</v>
@@ -5284,16 +5284,16 @@
         <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1347.554862903677</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M14" t="n">
-        <v>1347.554862903677</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.901640863329</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O14" t="n">
-        <v>2353.531449084024</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P14" t="n">
         <v>3181.84132391742</v>
@@ -5302,28 +5302,28 @@
         <v>3728.340109876015</v>
       </c>
       <c r="R14" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T14" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U14" t="n">
-        <v>3834.844877828295</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="V14" t="n">
-        <v>3472.227927762121</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.372473173155</v>
+        <v>3233.416417357122</v>
       </c>
       <c r="X14" t="n">
-        <v>2648.230009752465</v>
+        <v>2814.273953936432</v>
       </c>
       <c r="Y14" t="n">
-        <v>2239.943886052119</v>
+        <v>2405.987830236086</v>
       </c>
     </row>
     <row r="15">
@@ -5542,10 +5542,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,46 +6706,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873778</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,7 +7213,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2215.458936316807</v>
+        <v>1876.293612367988</v>
       </c>
       <c r="C41" t="n">
-        <v>1777.31646350023</v>
+        <v>1438.151139551411</v>
       </c>
       <c r="D41" t="n">
-        <v>1341.406678674675</v>
+        <v>1002.241354725856</v>
       </c>
       <c r="E41" t="n">
-        <v>907.6319338329698</v>
+        <v>568.4666098841508</v>
       </c>
       <c r="F41" t="n">
-        <v>479.7645042421776</v>
+        <v>140.5991802933585</v>
       </c>
       <c r="G41" t="n">
-        <v>78.36667286544143</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H41" t="n">
-        <v>78.36667286544143</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I41" t="n">
         <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>457.1059640083917</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K41" t="n">
-        <v>457.1059640083917</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L41" t="n">
-        <v>1421.735772229087</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M41" t="n">
-        <v>2386.365580449782</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N41" t="n">
-        <v>3350.995388670477</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O41" t="n">
-        <v>3350.995388670477</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P41" t="n">
         <v>3350.995388670477</v>
       </c>
       <c r="Q41" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R41" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U41" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V41" t="n">
-        <v>3874.042548511718</v>
+        <v>3534.877224562898</v>
       </c>
       <c r="W41" t="n">
-        <v>3469.187093922751</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X41" t="n">
-        <v>3050.044630502061</v>
+        <v>2710.879306553242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2641.758506801715</v>
+        <v>2302.593182852896</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>787.4437209101934</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C43" t="n">
-        <v>614.8820093934183</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D43" t="n">
         <v>590.0062162542604</v>
@@ -7596,25 +7596,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.368124693377</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T43" t="n">
-        <v>2289.488678271833</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U43" t="n">
-        <v>2011.055677524938</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V43" t="n">
-        <v>1724.100169395368</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W43" t="n">
-        <v>1452.07376498166</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.682010315072</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y43" t="n">
-        <v>979.2623396291806</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2215.458936316807</v>
+        <v>2070.814346031886</v>
       </c>
       <c r="C44" t="n">
-        <v>1777.31646350023</v>
+        <v>1632.671873215309</v>
       </c>
       <c r="D44" t="n">
-        <v>1341.406678674675</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="E44" t="n">
-        <v>907.6319338329698</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F44" t="n">
-        <v>479.7645042421776</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G44" t="n">
-        <v>78.36667286544143</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H44" t="n">
         <v>78.36667286544143</v>
@@ -7648,19 +7648,19 @@
         <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>77.94988349258144</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K44" t="n">
-        <v>912.3001754507594</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>1558.055705616386</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M44" t="n">
-        <v>1558.055705616386</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="N44" t="n">
-        <v>1558.055705616386</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="O44" t="n">
         <v>2522.685513837081</v>
@@ -7669,31 +7669,31 @@
         <v>3350.995388670477</v>
       </c>
       <c r="Q44" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R44" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>3897.494174629072</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T44" t="n">
-        <v>3874.042548511718</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U44" t="n">
-        <v>3874.042548511718</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="V44" t="n">
-        <v>3874.042548511718</v>
+        <v>3314.809997435937</v>
       </c>
       <c r="W44" t="n">
-        <v>3469.187093922751</v>
+        <v>2909.95454284697</v>
       </c>
       <c r="X44" t="n">
-        <v>3050.044630502061</v>
+        <v>2497.113916516793</v>
       </c>
       <c r="Y44" t="n">
-        <v>2641.758506801715</v>
+        <v>2497.113916516793</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>946.6850896121969</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C46" t="n">
-        <v>774.1233780954218</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D46" t="n">
-        <v>608.2453852969445</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E46" t="n">
-        <v>438.4873815476818</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7803275094379</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G46" t="n">
-        <v>96.1890525352656</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H46" t="n">
         <v>77.94988349258144</v>
@@ -7833,25 +7833,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.609493395381</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T46" t="n">
-        <v>2448.730046973836</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.297046226941</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.341538097372</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.315133683663</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X46" t="n">
-        <v>1365.923379017076</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.503708331184</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.17305800913124</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>974.3735436572679</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M5" t="n">
-        <v>974.3735436572679</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>935.0049156307123</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>98.3282743848572</v>
       </c>
       <c r="L8" t="n">
-        <v>935.0049156307122</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>974.373543657268</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>974.3735436572679</v>
@@ -8470,7 +8470,7 @@
         <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>974.373543657268</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.7823872436777</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>884.5424948664948</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>974.3735436572679</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>41.76442218146667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>974.3735436572679</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9403,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>382.9859399149599</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>974.373543657268</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="N41" t="n">
-        <v>974.3735436572679</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>652.2783132986124</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572679</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22555,19 +22555,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>352.7131305589971</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,10 +22603,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>154.341185213141</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.01701577190892</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>335.3610492301995</v>
+        <v>27.54418672678725</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>140.7232059832936</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.8092612572035</v>
+        <v>363.1539530017029</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>22.86827275269496</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>323.1142689627924</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>119.4665559974804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>97.20262655199826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23551,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>194.6072758233836</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>335.3610492301994</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>335.7736707093309</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>194.6494449995109</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.238818719607423</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440335.2621770246</v>
+        <v>440335.2621770247</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563757.490332084</v>
+        <v>563757.4903320838</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563757.490332084</v>
+        <v>563757.4903320838</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685984.5936836628</v>
+        <v>685984.5936836629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685984.5936836629</v>
+        <v>685984.5936836628</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563757.4903320838</v>
+        <v>563757.490332084</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>186005.1756518479</v>
       </c>
       <c r="C2" t="n">
-        <v>238140.8440828148</v>
+        <v>238140.8440828147</v>
       </c>
       <c r="D2" t="n">
         <v>238140.8440828147</v>
@@ -26325,10 +26325,10 @@
         <v>238140.8440828147</v>
       </c>
       <c r="F2" t="n">
-        <v>238140.8440828147</v>
+        <v>238140.8440828148</v>
       </c>
       <c r="G2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755438</v>
@@ -26337,7 +26337,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
         <v>289771.6712755437</v>
@@ -26346,16 +26346,16 @@
         <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
         <v>238140.8440828147</v>
       </c>
       <c r="P2" t="n">
-        <v>238140.8440828147</v>
+        <v>238140.8440828148</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690565</v>
+        <v>83290.85735690568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="C4" t="n">
         <v>44840.12888185008</v>
       </c>
       <c r="D4" t="n">
-        <v>44840.1288818501</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="E4" t="n">
-        <v>44840.12888185009</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="F4" t="n">
-        <v>44840.12888185009</v>
+        <v>44840.12888185008</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26447,10 +26447,10 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962275</v>
@@ -26472,10 +26472,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.5114543619</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.5114543619</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="E5" t="n">
         <v>59241.91145436189</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146930.4223419063</v>
+        <v>-147425.3125704876</v>
       </c>
       <c r="C6" t="n">
-        <v>1294.270291230408</v>
+        <v>1036.360373698985</v>
       </c>
       <c r="D6" t="n">
-        <v>100431.2037466027</v>
+        <v>100173.2938290713</v>
       </c>
       <c r="E6" t="n">
-        <v>134058.8037466028</v>
+        <v>133800.8938290713</v>
       </c>
       <c r="F6" t="n">
-        <v>134058.8037466028</v>
+        <v>133800.8938290714</v>
       </c>
       <c r="G6" t="n">
-        <v>74200.75020322288</v>
+        <v>74177.52586384016</v>
       </c>
       <c r="H6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207459</v>
       </c>
       <c r="I6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207458</v>
       </c>
       <c r="J6" t="n">
-        <v>-17159.74115757761</v>
+        <v>-17182.9654969603</v>
       </c>
       <c r="K6" t="n">
-        <v>78516.09107039569</v>
+        <v>78492.86673101305</v>
       </c>
       <c r="L6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207458</v>
       </c>
       <c r="M6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207458</v>
       </c>
       <c r="N6" t="n">
-        <v>157491.6075601285</v>
+        <v>157468.3832207458</v>
       </c>
       <c r="O6" t="n">
-        <v>134058.8037466028</v>
+        <v>133800.8938290713</v>
       </c>
       <c r="P6" t="n">
-        <v>134058.8037466027</v>
+        <v>133800.8938290713</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="D4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="E4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="F4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P4" t="n">
-        <v>974.373543657268</v>
+        <v>974.3735436572679</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.8869597274773</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.8869597274773</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.17305800913124</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>974.3735436572679</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M5" t="n">
-        <v>974.3735436572679</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>935.0049156307123</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>98.3282743848572</v>
       </c>
       <c r="L8" t="n">
-        <v>935.0049156307122</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>974.373543657268</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>974.3735436572679</v>
@@ -35190,7 +35190,7 @@
         <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>974.373543657268</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.7823872436777</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645586</v>
@@ -35412,22 +35412,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>884.5424948664948</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35652,19 +35652,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>41.76442218146667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36123,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>382.9859399149599</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>974.373543657268</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>974.3735436572679</v>
       </c>
-      <c r="N41" t="n">
-        <v>974.3735436572679</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>652.2783132986124</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572679</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
